--- a/Tests/Data/Food.xlsx
+++ b/Tests/Data/Food.xlsx
@@ -10,12 +10,37 @@
     <sheet name="Food" sheetId="2" r:id="rId1"/>
     <sheet name="Init" sheetId="8" r:id="rId2"/>
     <sheet name="Login" sheetId="1" r:id="rId3"/>
-    <sheet name="Specail" sheetId="9" r:id="rId4"/>
+    <sheet name="Specail|这里不显示" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这里是测试
+这是另外一行</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="267">
   <si>
@@ -968,7 +993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1027,13 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1507,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2944,6 +2976,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3136,7 +3169,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Tests/Data/Food.xlsx
+++ b/Tests/Data/Food.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E7227-EDFB-4D18-B2DD-3D5EAA8BC25A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="3960" yWindow="1620" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="2" r:id="rId1"/>
@@ -17,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +993,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1171,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1209,9 +1210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1238,7 +1236,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1254,7 +1252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1296,7 +1294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1329,9 +1327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,6 +1379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1539,11 +1571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1566,24 +1598,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
@@ -2357,7 +2389,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2687,288 +2719,288 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="16">
+      <c r="C126" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="16">
+      <c r="C127" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C128" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2981,11 +3013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,12 +3032,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3031,11 +3063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3050,12 +3082,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3129,32 +3161,32 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3165,11 +3197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3184,31 +3216,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>233</v>
       </c>
     </row>
